--- a/docs/testData.xlsx
+++ b/docs/testData.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Pretpostavio sam da nije potrebno da se do stranice zadatka dolazi preko glavne stranice i navbar-a nego da je ok da se ide direktno preko url-a</t>
   </si>
   <si>
-    <t xml:space="preserve">Kolica u problemu 2 su se nalazila sa desne strane, ali pretpostavljam da je greškom pisalo levo pa se nisam obazirao na to</t>
+    <t xml:space="preserve">Kolica u problemu 2 su se nalazila sa desne strane, ali pretpostavljam da je u opisu zadatka greškom pisalo levo pa se nisam obazirao na to</t>
   </si>
   <si>
     <t xml:space="preserve">0 – URL</t>
@@ -252,7 +252,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,10 +364,10 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="69.26"/>
@@ -554,7 +554,7 @@
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="24.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="26.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="26.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="24.34"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="5" width="11.63"/>
